--- a/biology/Zoologie/Eriocnemis/Eriocnemis.xlsx
+++ b/biology/Zoologie/Eriocnemis/Eriocnemis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocnemis,  (du grec  ἔριον / érion (« laine, duvet ») et κνημίς / knèmis (« jambière, botte »)) est un genre d'oiseaux-mouches (famille des trochilidés) de la sous-famille des Trochilinae. Le nom scientifique de ce genre fait référence à une caractéristique de ces oiseaux qui ont les pattes recouvertes d'une volumineuse touffe de plumes duveteuses, généralement blanches, particularité que partage le genre Haplophaedia. Une autre particularité de ce genre est la queue légèrement fourchue et relativement courte de ses membres.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.5, 2010) du Congrès ornithologique international, ce genre est constitué des espèces suivantes (par ordre phylogénique) :
 Eriocnemis nigrivestis – Érione à robe noire
